--- a/plan_rabot/media/documents/exel/stata_done.xlsx
+++ b/plan_rabot/media/documents/exel/stata_done.xlsx
@@ -504,92 +504,92 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>d1.820.104.411</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Втулка</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>250</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>209457.5</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>143750</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>13680000</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>13889469.5</v>
-      </c>
-      <c r="L2" s="3" t="n">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>d1.820.202.30</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Вал</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>129863.65</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>345000</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>2736000</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>716565.912</v>
+      </c>
+      <c r="L2" s="5" t="n">
         <v>45673</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="5" t="n">
         <v>45673</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>d1.820.104.411</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Втулка</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>d1.820.202.30</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Вал</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>155</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>129863.65</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>345000</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>2736000</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>716565.912</v>
-      </c>
-      <c r="L3" s="5" t="n">
+      <c r="E3" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>13.125</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>209457.5</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>143750</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>13680000</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>13889469.5</v>
+      </c>
+      <c r="L3" s="3" t="n">
         <v>45673</v>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="3" t="n">
         <v>45673</v>
       </c>
     </row>

--- a/plan_rabot/media/documents/exel/stata_done.xlsx
+++ b/plan_rabot/media/documents/exel/stata_done.xlsx
@@ -27,7 +27,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -46,6 +46,12 @@
         <bgColor rgb="0000B0F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -59,7 +65,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -68,6 +74,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -504,48 +512,48 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>d1.820.202.30</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>Вал</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>155</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>129863.65</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>345000</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>2736000</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>716565.912</v>
-      </c>
-      <c r="L2" s="5" t="n">
-        <v>45673</v>
-      </c>
-      <c r="M2" s="5" t="n">
-        <v>45673</v>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>775000</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>230000</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>395000</v>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>45690</v>
+      </c>
+      <c r="M2" s="7" t="n">
+        <v>45690</v>
       </c>
     </row>
     <row r="3">

--- a/plan_rabot/media/documents/exel/stata_done.xlsx
+++ b/plan_rabot/media/documents/exel/stata_done.xlsx
@@ -27,7 +27,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,12 @@
         <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -76,6 +82,8 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -512,47 +520,47 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>1222</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="2" t="n">
         <v>220000</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="2" t="n">
         <v>775000</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="2" t="n">
         <v>230000</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="2" t="n">
         <v>395000</v>
       </c>
-      <c r="L2" s="7" t="n">
+      <c r="L2" s="3" t="n">
         <v>45690</v>
       </c>
-      <c r="M2" s="7" t="n">
+      <c r="M2" s="3" t="n">
         <v>45690</v>
       </c>
     </row>

--- a/plan_rabot/media/documents/exel/stata_done.xlsx
+++ b/plan_rabot/media/documents/exel/stata_done.xlsx
@@ -543,19 +543,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>775000</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>230000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>395000</v>
+        <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
         <v>45690</v>
@@ -570,43 +570,43 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>d1.820.104.411</t>
+          <t>1.182,222,5443</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Втулка</t>
+          <t>VAL</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>13.125</v>
+        <v>220000</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>209457.5</v>
+        <v>775000</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>143750</v>
+        <v>230000</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>13680000</v>
+        <v>15000</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>13889469.5</v>
+        <v>263333.333</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>45673</v>
+        <v>45659</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>45673</v>
+        <v>45659</v>
       </c>
     </row>
   </sheetData>
